--- a/biology/Origine et évolution du vivant/Phénomène_densité-dépendant/Phénomène_densité-dépendant.xlsx
+++ b/biology/Origine et évolution du vivant/Phénomène_densité-dépendant/Phénomène_densité-dépendant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_densit%C3%A9-d%C3%A9pendant</t>
+          <t>Phénomène_densité-dépendant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la sélection fréquence-dépendante, la sélection densité-dépendante met en relation le gain de fitness avec la densité d'individus d'une espèce donnée dans une population. Tantôt positive, tantôt négative, cette  sélection est en étroite relation avec la dynamique des populations car c'est cette dynamique qui va faire varier la densité d'individus au cours du temps.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_densit%C3%A9-d%C3%A9pendant</t>
+          <t>Phénomène_densité-dépendant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rappel sur la dynamique d'une population</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations d’organismes changent au fil du temps. À l’échelle mondiale ce changement est dû à deux facteurs : le rythme auquel les individus procréent (taux de natalité n) et le rythme auquel les organismes meurent (taux de mortalité m). Le taux de croissance d'une population est égale au taux de natalité, moins le taux de mortalité. Le taux de croissance est appelé aussi « Croissance naturelle » chez les populations humaines. Si dans une population les organismes naissent plus vite qu’ils meurent c’est une valeur positive et la taille de la population augmente. Si dans une population les organismes meurent plus vite qu’ils ne naissent c’est une valeur négative et la taille de la population diminue. Si c’est égal à zéro, les naissances et les décès sont égaux et la taille de la population est stable malgré une reproduction et une mortalité continue.
 En plus des taux de natalité et de mortalité, la dispersion ou circulation d’une région à une autre ou d’un pays à un autre est prise en considération quand on étudie le changement d’une population à une échelle locale. Il existe deux types de dispersion : L’immigration, grâce à laquelle des individus entrent dans une population et augmentent sa taille et l’émigration, grâce à laquelle des individus quittent une population et font diminuer sa taille. Le taux de croissance d’une population locale doit prendre en compte le taux de natalité, le taux de mortalité, l’immigration et l’émigration.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_densit%C3%A9-d%C3%A9pendant</t>
+          <t>Phénomène_densité-dépendant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Facteurs dépendants de la densité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains facteurs environnementaux, comme la prédation ont une plus grande influence sur la population quand sa densité est plus importante. Si un changement dans la densité de population altère la manière dont un facteur environnemental affecte la population, alors le facteur environnemental est appelé : facteur dépendant de la densité. Quand la densité de la population augmente, les facteurs dépendants de la densité ont tendance à ralentir la croissance en provoquant une augmentation du taux de mortalité ou une baisse du taux de natalité. L’effet de ces facteurs dépendants de la densité sur la croissance démographique augmente en même temps que la densité de la population (ce qui veut dire que les facteurs dépendants affectent une proportion plus importante de la population et non pas un plus grand nombre). Les facteurs dépendants de la densité contribuent également à la croissance démographique quand la densité d'une population baisse en diminuant le taux de mortalité ou en augmentant le taux de natalité. Ainsi les facteurs dépendants de la densité ont tendance à maintenir une population à une taille relativement constante. 
 La prédation, les maladies, et la compétition intraspécifique sont des exemples de facteurs dépendants de la densité. Quand la densité d'une population augmente les prédateurs sont plus susceptibles de trouver un individu parmi une espèce donnée de proies. Lorsque la densité d'une population est élevée les membres d'une population se rencontrent plus fréquemment et la probabilité de transmission d'une maladie ou de parasites augmente. Alors que la densité de la population augmente, la compétition pour les ressources comme l'espace vital, la nourriture, un abri, l’eau, les minéraux et la lumière du soleil augmentent également. Les effets opposés se produisent quand la densité d'une population diminue. Les prédateurs sont moins susceptibles de rencontrer une proie, les parasites ont moins de chance d'être transmis d’un hôte à l'autre, et la concurrence entre les membres d'une population pour des ressources comme l'espace et la nourriture baisse. C'est une pression de sélection sur les individus.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_densit%C3%A9-d%C3%A9pendant</t>
+          <t>Phénomène_densité-dépendant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Effet Allee</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet Allee est un phénomène de densité-dépendance positive en écologie des populations, caractérisé par une corrélation positive entre la densité d'une population et son taux de croissance. Il se manifeste chez certaines espèces et seulement pour de faibles effectifs. La présence d'un effet Allee dans une population a été décrite comme l'existence d'une densité-dépendance inverse pour des faibles effectifs. C'est-à-dire l'existence d'une corrélation positive entre la densité d'une population et son taux de croissance lorsque la population comporte relativement peu d'individus. Cela résulte en une diminution du taux de croissance de la population quand sa taille diminue, et inversement une augmentation de ce taux quand sa taille augmente. Ce principe s'oppose à l'idée qu'il existe toujours une corrélation négative entre la densité d'une population et son taux de croissance, liée essentiellement aux phénomènes de compétition. De très nombreux mécanismes peuvent donner naissance à un effet Allee dans une population à faible densité, comme la consanguinité, la stochasticité démographique et les phénomènes de facilitation. On distingue deux formes de l'effet Allee : l'effet Allee élémentaire (Component Allee effect) et l'effet Allee démographique.
 Un effet Allee élémentaire est observé quand un composant de la fitness individuelle, par exemple le taux de survie ou de reproduction, est positivement corrélé à la taille de la population. Ainsi, dans une même population il peut y avoir de nombreux effets Allee élémentaires.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_densit%C3%A9-d%C3%A9pendant</t>
+          <t>Phénomène_densité-dépendant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>L'exemple des forêts tropicales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude menée par Kyle E. Harms, S. Joseph Wright, Osvaldo Calderon, Andrés Hernàndez &amp; Edward Allen Herre (Pervasive density-dependent recruitment enhances seedling diversity in a tropical forest[1]) s'est intéressée à l'effet de la densité sur la diversité des espèces d'arbres dans les forêts tropicales du Panama, supposant que la sélection des graines pouvant germer était soumise à une sélection densité-dépendante négative. L'effet supposé de la densité était qu'une graine d'une espèce X ne pouvait pas germer si le nombre d'individus de l'espèce X aux alentours était trop important.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude menée par Kyle E. Harms, S. Joseph Wright, Osvaldo Calderon, Andrés Hernàndez &amp; Edward Allen Herre (Pervasive density-dependent recruitment enhances seedling diversity in a tropical forest) s'est intéressée à l'effet de la densité sur la diversité des espèces d'arbres dans les forêts tropicales du Panama, supposant que la sélection des graines pouvant germer était soumise à une sélection densité-dépendante négative. L'effet supposé de la densité était qu'une graine d'une espèce X ne pouvait pas germer si le nombre d'individus de l'espèce X aux alentours était trop important.
 En premier lieu, les chercheurs ont étudié cet effet sur des populations de plantes mono-spécifiques. Ils ont effectivement remarqué que les graines ne germaient pas si la population de la même espèce aux alentours était trop importante. Ils se sont ensuite proposés de comparer la diversité observée des plantes mises en culture avec de nombreuses autres espèces avec trois critères :
 Comparaison avec la diversité de graines émises (avant germination)
 Comparaison avec la diversité attendue en prenant en compte le nombre de graines émises par chaque espèce et la survie de chaque type de graine
